--- a/result/102-TOLIMMAR.xlsx
+++ b/result/102-TOLIMMAR.xlsx
@@ -519,28 +519,24 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>90100.00</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>90100.00</t>
+          <t>203050.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>203050.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>IMMOBILISATIONS EN NON VALEUR (A)</t>
+          <t>IMMOBILISATIONS EN NON VALEUR</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -572,12 +568,30 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>112950.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>112950.00</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Frais préliminaires</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,12 +616,30 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>90100.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>90100.00</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Charges à répartir sur plusieurs exercices</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -633,11 +665,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Primes de remboursement des obligations</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,28 +707,24 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>17199213.19</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14105562.79</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3093650.40</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>IMMOBILISATIONS INCORPORELLES (B)</t>
+          <t>IMMOBILISATIONS INCORPORELLES</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -715,11 +757,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Frais de recherche et de développement</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -745,11 +801,25 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Brevets, marques, droits, et valeurs similaires</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -775,11 +845,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Fonds commercial</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -805,11 +889,25 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Autres immobilisations incorporelles</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -833,16 +931,28 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17199213.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>14105562.79</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3093650.40</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>IMMOBILISATIONS CORPORELLES (C)</t>
+          <t>IMMOBILISATIONS CORPORELLES</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -875,11 +985,25 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Terrains</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -905,11 +1029,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Constructions</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -933,13 +1071,35 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14164131.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11623906.14</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2540225.85</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Installations techniques, matériel et outillage</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -964,12 +1124,30 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>400441.97</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>400441.97</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Matériel transport</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -993,13 +1171,35 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1221733.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1135421.50</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>86312.48</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Mobilier, matériel de bureau et aménagements div</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1023,13 +1223,35 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1412905.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>945793.18</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>467112.07</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Autres immobilisations corporelles</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1055,11 +1277,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Immobilisations corporelles en cours</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1084,15 +1320,23 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>IMMOBILISATIONS FINANCIERES (D)</t>
+          <t>IMMOBILISATIONS FINANCIERES</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1125,11 +1369,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Prêts immobilisés</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1154,12 +1412,30 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Autres créances financières</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1185,11 +1461,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Titres de participation</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1244,15 +1534,23 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ECARTS DE CONVERSIONS - ACTIF (I)</t>
+          <t>ECARTS DE CONVERSIONS - ACTIF</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1285,11 +1583,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Diminution des créances immobilisées</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1315,11 +1627,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Augmentation des dettes financières</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1376,21 +1702,21 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>323896.90</t>
+          <t>1365964.75</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>323896.90</t>
+          <t>1365964.75</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>STOCK (F)</t>
+          <t>STOCK</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -1422,12 +1748,30 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>323806.70</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>323806.70</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Marchandises</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1452,12 +1796,30 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>718261.15</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>718261.15</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Matières et fournitures consommables</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1483,11 +1845,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>En-cours</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1512,12 +1888,30 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>323896.90</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>323896.90</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Produits intermédiaires, et produits résiduels</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1543,11 +1937,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Produits finis</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1572,15 +1980,23 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>22978880.88</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22978880.88</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CREANCES DE L'ACTIF CIRCULANT (G)</t>
+          <t>CREANCES DE L'ACTIF CIRCULANT</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -1613,11 +2029,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Fournis. , débiteurs, avances et acomptes</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1642,12 +2072,30 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>16306277.79</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>16306277.79</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Clients et comptes rattachés</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1763,11 +2211,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>7343946.06</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Etat - créditeur</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1795,9 +2257,19 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Banques de régularisation</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1822,15 +2294,23 @@
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>TITRES ET VALEURS DE PLACEMENT (H)</t>
+          <t>TITRES ET VALEURS DE PLACEMENT</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -1892,30 +2372,12 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>24344845.63</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>24344845.63</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>TOTAL II (F+G+H+I)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>gemini_page</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1942,17 +2404,17 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23611.58</t>
+          <t>157939.14</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23611.58</t>
+          <t>157939.14</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1989,11 +2451,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Chèques et valeurs à encaisser</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2018,12 +2494,30 @@
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>134327.56</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>134327.56</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Banque, T.G. et C.C.P.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2048,12 +2542,30 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>23611.58</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>23611.58</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Caisse, Régies d'avances et accréditifs</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2208,11 +2720,25 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Capital appelé</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2236,11 +2762,25 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12000000.00</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Capital social ou personnel (1)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2264,11 +2804,25 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>mois : actionnaires, capital souscrit non appelé</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2294,9 +2848,19 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Prime d'émission, de fusion, d'apport</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2322,9 +2886,19 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Ecarts de réévaluation</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2350,9 +2924,19 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Réserve légale</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2378,9 +2962,19 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Autres réserves</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2404,11 +2998,25 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5943901.07</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Report à nouveau (2)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2432,11 +3040,25 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Résultats nets en instance d'affectation (2)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2460,11 +3082,25 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>943413.91</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Résultat net de l'exercice (2)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2488,11 +3124,25 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6999512.84</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total des capitaux propres (A)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2518,9 +3168,19 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CAPITAUX PROPRES ASSIMILEES</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2546,9 +3206,19 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Subventions d'investissement</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2574,9 +3244,19 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Provisions réglementées</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2602,9 +3282,19 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DETTES DE FINANCEMENT</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2628,11 +3318,25 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>561687.12</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Emprunts obligataires</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2658,9 +3362,19 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Autres dettes de financement</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2686,9 +3400,19 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PROVISIONS DURABLES POUR RISQUES ET CHARGES</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2714,9 +3438,19 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Provisions pour risques</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2742,9 +3476,19 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Provisions pour charges</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2770,9 +3514,19 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECARTS DE CONVERSION - PASSIF</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2798,9 +3552,19 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Augmentation des créances immobilisées</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2826,9 +3590,19 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Diminution des dettes de financement</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2854,12 +3628,12 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3122150.40</t>
+          <t>7561199.96</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2894,11 +3668,25 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>16451438.17</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DETTES DU PASSIF CIRCULANT</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2922,11 +3710,25 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6042089.70</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Fournisseurs et comptes rattachés</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2952,9 +3754,19 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Clients créditeur, avances et acomptes</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2978,11 +3790,25 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>182846.85</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Personnel</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3006,11 +3832,25 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1189353.74</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Organismes sociaux</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3064,9 +3904,19 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Comptes d'associés</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3090,11 +3940,25 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1680000.00</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Autres créanciers</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3118,11 +3982,25 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>13201.82</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Comptes de régularisation-passif</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3148,9 +4026,19 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>AUTRES PROVISIONS POUR RISQUES ET CHARGES</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3176,9 +4064,19 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ECARTS DE CONVERSION - PASSIF (Eléments circulants)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3202,11 +4100,25 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>16451438.17</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TOTAL II (F+G+H)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3232,9 +4144,19 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TRESORERIE - PASSIF</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3260,9 +4182,19 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Crédits d'escompte</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3288,9 +4220,19 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Crédits de trésorerie</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3344,16 +4286,16 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>157939.14</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Total III</t>
+          <t>TOTAL VIII</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3386,16 +4328,16 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>27624935.17</t>
+          <t>24012638.13</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TOTAL GENERAL I+II+III</t>
+          <t>TOTAL GENERAL I + II + III</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3508,12 +4450,30 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PRODUITS D'EXPLOITATION</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3537,13 +4497,35 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>522791.18</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Ventes de marchandises (en l'état)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3566,14 +4548,40 @@
           <t xml:space="preserve">Ventes de biens et services produites </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>18952596.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>18089340.42</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ventes de biens et services produits</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3597,13 +4605,35 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Chiffres d'affaires</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3626,14 +4656,40 @@
           <t>Variation de stock de produits</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>250828.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>36863.47</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Variation de stocks de produits (+/-) 1)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3657,13 +4713,35 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Immobilisations produites par l'entreprise pour elle-même</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3687,13 +4765,35 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Subventions d'exploitation</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3717,13 +4817,35 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Autres produits d'exploitations</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3747,13 +4869,35 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Reprises d'exploitations : transferts de charges</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3776,14 +4920,40 @@
           <t>TOTAL I</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>19726215.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18052476.95</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>TOTAL I</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3807,13 +4977,35 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CHARGES D'EXPLOITATION</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3836,14 +5028,40 @@
           <t>Achats revendus de marchandises</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>466927.50</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2927212.60</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Achats revendus (2) de marchandises</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3866,14 +5084,40 @@
           <t>Achats consommes de matieres et de fournitures</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10803693.80</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6767625.35</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Achats consommés (2) de matières et fournitures</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3896,14 +5140,40 @@
           <t>Autres charges externes</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1301585.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2086665.20</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Autres charges externes</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3926,14 +5196,40 @@
           <t>Impots et taxes</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>134554.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>133725.23</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Impôts et taxes</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3956,14 +5252,40 @@
           <t>Charges de personnel</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4289100.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3431908.23</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Charges de personnel</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3987,13 +5309,35 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Autres charges d'exploitation</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4016,14 +5360,40 @@
           <t>Dotations d'exploitation</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1641849.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1620646.71</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Dotation d'exploitation</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4046,14 +5416,40 @@
           <t>TOTAL II</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>18637711.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>16967783.32</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>TOTAL II</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4076,14 +5472,40 @@
           <t>RESULTAT D'EXPLOITATION (I-II)</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1088504.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1084693.63</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>RESULTAT D'EXPLOITATION (I - II)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4107,13 +5529,35 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PRODUITS FINANCIERS</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4137,13 +5581,35 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Produits des titres de participation et autres titres immobilisés</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4167,13 +5633,35 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Gain de change</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4197,13 +5685,35 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>943413.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>934489.40</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>RESULTAT NET (total des produits - total des charges)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4227,13 +5737,35 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Reprises financières; transferts de charges</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4257,13 +5789,35 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>TOTAL IV</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4287,13 +5841,35 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CHARGES FINANCIERES</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4316,14 +5892,40 @@
           <t>Charges d'interets</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4681.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>47654.72</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Charges d'intérêts</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4347,13 +5949,35 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Pertes de changes</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4377,13 +6001,35 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Autres charges financières</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4407,13 +6053,35 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Dotations financières</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4436,14 +6104,40 @@
           <t>TOTAL V</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4681.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>47654.72</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>TOTAL V</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4466,14 +6160,40 @@
           <t>RESULTAT FINANCIER (IV - V)</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4681.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>47654.72</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>RESULTAT FINANCIER (IV - V)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4496,14 +6216,40 @@
           <t>RESULTAT COURANT (III - VI)</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1083823.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1037038.91</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>RESULTAT COURANT (III + VI)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4527,13 +6273,35 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1037038.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1083823.30</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>VII RESULTAT COURANT (reports)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4558,12 +6326,30 @@
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>VIII PRODUITS NON COURANTS</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4588,12 +6374,30 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>* Produits des cessions d'immobilisation</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4618,12 +6422,30 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>* Subvention d'équilibre</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4648,12 +6470,30 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>* Reprises sur subventions d'investissement</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4678,12 +6518,30 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>* Autres produits non courants</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4708,12 +6566,30 @@
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>* Reprises non courantes : transfert de charges</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4768,12 +6644,30 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>IX CHARGES NON COURANTES</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4798,12 +6692,30 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>* Valeurs nettes d'amortissements des immobilisations cédées</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4828,12 +6740,30 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>* Subventions accordées</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4886,14 +6816,40 @@
           <t>Dotations non courantes aux amortiss et prov</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3362.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>50701.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>3362.00</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>* Dotations non courantes aux amortissements et aux provisions</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4916,14 +6872,40 @@
           <t>TOTAL IX</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3362.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>50701.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3362.00</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>TOTAL IX</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4947,13 +6929,35 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1033676.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1033121.40</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>X RESULTAT NON COURANT (VIII-IX)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4977,17 +6981,39 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1033676.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1033121.40</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>XI RESULTAT AVANT IMPOTS (VII +/- X)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5010,18 +7036,44 @@
           <t>IMPOTS SUR LES RESULTATS</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90263.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>98632.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>90263.00</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>XII IMPOTS SUR LES RESULTATS</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5045,17 +7097,39 @@
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>943413.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>934489.40</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>XIII RESULTAT NET (XI - XII)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5079,17 +7153,39 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>18052476.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>19726215.79</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>TOTAL DES PRODUITS (I + IV + VIII)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5113,17 +7209,39 @@
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>17109063.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18791726.39</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>_is_subtotal</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>TOTAL DES CHARGES (II + V + IX + XII)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>gemini_page</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
